--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CCE1D-EE02-4886-9EDF-90CA663C6633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1941312-7AC8-4A49-910A-733552DAE92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="3240" windowWidth="14730" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Produit</t>
   </si>
   <si>
-    <t>Ouvrir la page d'accueil et cliquer sur un produit</t>
-  </si>
-  <si>
     <t>Affichage de détails du produit : image, nom, prix, description.</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Choisir nombre d'article(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom du et description </t>
-  </si>
-  <si>
     <t>Si vous avez choisi une couleur et un nombre d'articles, un message apparaîtra : « Votre commande de … est bien ajouter au panier ». Si vous avez oublié de choisir une couleur et/ou un nombre d'articles, ou si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : « Veuillez choisir une quantité entre 1 et 100 et/ou une couleur du canapé ».</t>
   </si>
   <si>
@@ -142,7 +136,14 @@
     <t>Si vous avez mal rempli les cases de formulaire un message erreur et à paraître: «Champ invalide, veuillez vérifier votre … »</t>
   </si>
   <si>
-    <t>Si vous avez rempli toutes les cases de formulaire un message et à paraître : «Commande validée ! Votre numéro de commande est : … ». Si non un message erreur et à paraître: « Vous devez renseigner vos coordonnées pour passer la commande ! ».Si vous avez supprimé tous les articles de panier message d'erreur à paraître : « Pour passer commande, veuillez ajouter des produits à votre panier »</t>
+    <t>Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom et  le début de
+sa description</t>
+  </si>
+  <si>
+    <t>Ouvrir la page d'accueil en cliquant sur le produit</t>
+  </si>
+  <si>
+    <t>Si vous avez rempli toutes les cases de formulaire un message et à paraître : «Commande validée ! Votre numéro de commande est : … ». Si non, un message erreur et à paraître: « Vous devez renseigner vos coordonnées pour passer la commande ! ».Si vous avez supprimé tous les articles de panier, message d'erreur à paraître : « Pour passer commande, veuillez ajouter des produits à votre panier »</t>
   </si>
 </sst>
 </file>
@@ -654,6 +655,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,21 +695,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -945,23 +946,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>4</v>
@@ -971,13 +972,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -987,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
@@ -1001,13 +1002,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>6</v>
@@ -1018,13 +1019,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -1035,39 +1036,39 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>6</v>
@@ -1078,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>6</v>
@@ -1095,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>6</v>
@@ -1112,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>6</v>
@@ -1129,97 +1130,97 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="222.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+      <c r="A15" s="18">
         <v>11</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1941312-7AC8-4A49-910A-733552DAE92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F3EBD-F53B-42EE-B0D1-93B835A2B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="3240" windowWidth="14730" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022F3EBD-F53B-42EE-B0D1-93B835A2B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E825C-8027-42F4-8B6F-5A8CD64A987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,10 +140,10 @@
 sa description</t>
   </si>
   <si>
-    <t>Ouvrir la page d'accueil en cliquant sur le produit</t>
-  </si>
-  <si>
     <t>Si vous avez rempli toutes les cases de formulaire un message et à paraître : «Commande validée ! Votre numéro de commande est : … ». Si non, un message erreur et à paraître: « Vous devez renseigner vos coordonnées pour passer la commande ! ».Si vous avez supprimé tous les articles de panier, message d'erreur à paraître : « Pour passer commande, veuillez ajouter des produits à votre panier »</t>
+  </si>
+  <si>
+    <t>Ouvrir la page « produit » en cliquant sur le produit</t>
   </si>
 </sst>
 </file>
@@ -918,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -988,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -1153,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>6</v>

--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E825C-8027-42F4-8B6F-5A8CD64A987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226C2EA-F041-40C3-B1B4-C3248AD28032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Une page d’un produit, montrant de manière dynamique, les détails d’un produit disponible à la vente</t>
-  </si>
-  <si>
     <t>Produit</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>Choisir une couleur</t>
   </si>
   <si>
-    <t>Cliquer sur la fenêtre « choisissez une couleur ».Vous pourrez choisir la couleur de votre produit, en cliquant dessus.</t>
-  </si>
-  <si>
-    <t>Dans la fenêtre « nombre d'articles », cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100. </t>
-  </si>
-  <si>
     <t>Affichage nombre d'articles</t>
   </si>
   <si>
@@ -73,77 +64,86 @@
     <t>Ouvrir la page d'accueil du site web dans un navigateur</t>
   </si>
   <si>
-    <t>Ouvrir la page «panier» en cliquant sur panier à haut à droite de la page «accueil» et «produit»</t>
-  </si>
-  <si>
-    <t>Dans la fenêtre « Qté », cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100.</t>
-  </si>
-  <si>
     <t>Suppression d'un l'article</t>
   </si>
   <si>
-    <t>Juste en dessous de la fenêtre « Qté », cliquer sur les « Supprimer »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage de l'ensemble des produits (image, nom, prix, quantité) dans le panier, Nombre total d'articles et du prix total, formulaire de commandes et bouton commander. </t>
-  </si>
-  <si>
-    <t>Dans la fenêtre "Qté", sélectionnez le nombre d'articles souhaité.</t>
-  </si>
-  <si>
-    <t>La quantité totale et le prix changeront.</t>
-  </si>
-  <si>
     <t>Remplir le formulaire de commande</t>
   </si>
   <si>
     <t>Remplissage de toutes les cases de formulaire de commande</t>
   </si>
   <si>
-    <t>Calcul nombre total d'articles et du prix total</t>
-  </si>
-  <si>
     <t>Modifier nombre d’articles</t>
   </si>
   <si>
-    <t>Une page d’un panier, montrant de manière dynamique, les détails des produits que nous avons ajouté sur la page « produit ». Nombre total d'articles et du prix total, formulaire de commandes et bouton commander</t>
-  </si>
-  <si>
-    <t>Choisir nombre d'article(s)</t>
-  </si>
-  <si>
-    <t>Si vous avez choisi une couleur et un nombre d'articles, un message apparaîtra : « Votre commande de … est bien ajouter au panier ». Si vous avez oublié de choisir une couleur et/ou un nombre d'articles, ou si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : « Veuillez choisir une quantité entre 1 et 100 et/ou une couleur du canapé ».</t>
-  </si>
-  <si>
-    <t>Affichage quantité d'articles sélectionnés, si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : « Veuillez choisir une quantité entre 1 et 100 ».</t>
-  </si>
-  <si>
-    <t>Bouton « Commander ! »</t>
-  </si>
-  <si>
-    <t>Cliquer sur la bouton « Commander ! »</t>
-  </si>
-  <si>
-    <t>Bouton « Ajouter au panier »</t>
-  </si>
-  <si>
-    <t>Cliquer sur la bouton « Ajouter au panier »</t>
-  </si>
-  <si>
-    <t>L'article que vous avez choisi sera supprimé et un message à paraître: « Vous avez bien supprimé votre produit du panier ! »</t>
-  </si>
-  <si>
-    <t>Si vous avez mal rempli les cases de formulaire un message erreur et à paraître: «Champ invalide, veuillez vérifier votre … »</t>
-  </si>
-  <si>
-    <t>Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom et  le début de
-sa description</t>
-  </si>
-  <si>
-    <t>Si vous avez rempli toutes les cases de formulaire un message et à paraître : «Commande validée ! Votre numéro de commande est : … ». Si non, un message erreur et à paraître: « Vous devez renseigner vos coordonnées pour passer la commande ! ».Si vous avez supprimé tous les articles de panier, message d'erreur à paraître : « Pour passer commande, veuillez ajouter des produits à votre panier »</t>
-  </si>
-  <si>
-    <t>Ouvrir la page « produit » en cliquant sur le produit</t>
+    <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom du et description </t>
+  </si>
+  <si>
+    <t>Ouvrir la page «panier» en cliquant sur «panier» en haut à droite de la page «accueil» et «produit»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage de l'ensemble des produits (image, nom, prix, quantité) dans le panier, nombre total d'articles et du prix total, formulaire de commandes et bouton commander. </t>
+  </si>
+  <si>
+    <t>Dans la fenêtre «Quantité», sélectionnez le nombre d'articles souhaité.</t>
+  </si>
+  <si>
+    <t>Dans la fenêtre «Quantité», cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100.</t>
+  </si>
+  <si>
+    <t>En dessous de la fenêtre «Quantité», cliquer sur le « Supprimer »</t>
+  </si>
+  <si>
+    <t>Une page d’un produit, montrant (de manière dynamique), les détails d’un produit disponible à la vente</t>
+  </si>
+  <si>
+    <t>Choisir nombre d'articles</t>
+  </si>
+  <si>
+    <t>Une page «panier» montrant (de manière dynamique) les détails de produits que vous avez ajouté sur la page «produit». Nombre total d'articles et du prix total, formulaire de commandes et bouton «commander».</t>
+  </si>
+  <si>
+    <t>Calcul de nombre total d'articles et du prix total</t>
+  </si>
+  <si>
+    <t>La quantité totale et le prix total changeront.</t>
+  </si>
+  <si>
+    <t>Si vous avez mal rempli les cases du formulaire, un message d'erreur apparaîtra.</t>
+  </si>
+  <si>
+    <t>L'article que vous avez choisi sera supprimé et un message apparaîtra: « L'article a été retiré de votre panier »</t>
+  </si>
+  <si>
+    <t>Si vous avez rempli toutes les cases du formulaire et vous avez cliqué sur le bouton «Commander !», un message apparaîtra: «Commande validée ! Votre numéro de commande est : …». Si non, un message d'erreur apparaîtra. Si vous avez supprimé tous les articles du panier, message  apparaîtra : «Votre panier est vide.
+Consulter notre catalogue»</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton «Commander !»</t>
+  </si>
+  <si>
+    <t>Bouton «Commander !»</t>
+  </si>
+  <si>
+    <t>Affichage quantité d'articles sélectionnés, si vous avez saisi plus de 100, vous allez recevoir un message : «La quantité est limitée à 100 pièces». Si vous avez saisi moins de 1, un message apparaîtra: «L'article a été retiré de votre panier»</t>
+  </si>
+  <si>
+    <t>Si vous avez choisi une couleur et le nombre d'articles, un message apparaîtra : «Votre commande de … est bien ajoutée au panier». Si vous avez oublié de choisir une couleur et/ou un nombre d'articles, ou si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : «Veuillez choisir une quantité entre 1 et 100 et/ou une couleur du canapé».</t>
+  </si>
+  <si>
+    <t>Cliquer sur la bouton «Ajouter au panier»</t>
+  </si>
+  <si>
+    <t>Bouton «Ajouter au panier»</t>
+  </si>
+  <si>
+    <t>Dans la fenêtre «nombre d'articles», cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100. </t>
+  </si>
+  <si>
+    <t>Cliquer sur la fenêtre «choisissez une couleur». Vous pouvez choisir la couleur de votre produit, en cliquant dessus.</t>
+  </si>
+  <si>
+    <t>Ouvrir la page «produit» en cliquant sur un produit</t>
   </si>
 </sst>
 </file>
@@ -224,29 +224,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -258,10 +241,21 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -270,25 +264,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -296,103 +277,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -401,47 +285,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,21 +308,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -485,9 +321,80 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -495,18 +402,40 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -520,39 +449,110 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -565,7 +565,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -580,7 +580,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -590,12 +590,12 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -607,55 +607,55 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,31 +670,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,30 +918,31 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="3" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -954,26 +955,26 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -981,76 +982,76 @@
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="16">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1058,169 +1059,169 @@
       <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="E13" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11" t="s">
+    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="81" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="222.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E226C2EA-F041-40C3-B1B4-C3248AD28032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309BCB6-16E0-4537-9735-8B14DF002BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309BCB6-16E0-4537-9735-8B14DF002BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB76508-DB97-4C92-90FD-0EB2138088DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Modifier nombre d’articles</t>
   </si>
   <si>
-    <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom du et description </t>
-  </si>
-  <si>
     <t>Ouvrir la page «panier» en cliquant sur «panier» en haut à droite de la page «accueil» et «produit»</t>
   </si>
   <si>
@@ -115,35 +112,38 @@
     <t>L'article que vous avez choisi sera supprimé et un message apparaîtra: « L'article a été retiré de votre panier »</t>
   </si>
   <si>
-    <t>Si vous avez rempli toutes les cases du formulaire et vous avez cliqué sur le bouton «Commander !», un message apparaîtra: «Commande validée ! Votre numéro de commande est : …». Si non, un message d'erreur apparaîtra. Si vous avez supprimé tous les articles du panier, message  apparaîtra : «Votre panier est vide.
+    <t>Cliquer sur le bouton «Commander !»</t>
+  </si>
+  <si>
+    <t>Bouton «Commander !»</t>
+  </si>
+  <si>
+    <t>Affichage quantité d'articles sélectionnés, si vous avez saisi plus de 100, vous allez recevoir un message : «La quantité est limitée à 100 pièces». Si vous avez saisi moins de 1, un message apparaîtra: «L'article a été retiré de votre panier»</t>
+  </si>
+  <si>
+    <t>Si vous avez choisi une couleur et le nombre d'articles, un message apparaîtra : «Votre commande de … est bien ajoutée au panier». Si vous avez oublié de choisir une couleur et/ou un nombre d'articles, ou si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : «Veuillez choisir une quantité entre 1 et 100 et/ou une couleur du canapé».</t>
+  </si>
+  <si>
+    <t>Cliquer sur la bouton «Ajouter au panier»</t>
+  </si>
+  <si>
+    <t>Bouton «Ajouter au panier»</t>
+  </si>
+  <si>
+    <t>Dans la fenêtre «nombre d'articles», cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100. </t>
+  </si>
+  <si>
+    <t>Cliquer sur la fenêtre «choisissez une couleur». Vous pouvez choisir la couleur de votre produit, en cliquant dessus.</t>
+  </si>
+  <si>
+    <t>Ouvrir la page «produit» en cliquant sur un produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom et description </t>
+  </si>
+  <si>
+    <t>Si vous avez rempli toutes les cases du formulaire et vous avez cliqué sur le bouton «Commander !», vous serez transféré sur la page «Confirmation» avec un message au centre : «Commande validée ! Votre numéro de commande est : …Nous vous remercions pour votre commande! ». Si non, un message d'erreur apparaîtra. Si vous avez supprimé tous les articles du panier, message  apparaîtra : «Votre panier est vide.
 Consulter notre catalogue»</t>
-  </si>
-  <si>
-    <t>Cliquer sur le bouton «Commander !»</t>
-  </si>
-  <si>
-    <t>Bouton «Commander !»</t>
-  </si>
-  <si>
-    <t>Affichage quantité d'articles sélectionnés, si vous avez saisi plus de 100, vous allez recevoir un message : «La quantité est limitée à 100 pièces». Si vous avez saisi moins de 1, un message apparaîtra: «L'article a été retiré de votre panier»</t>
-  </si>
-  <si>
-    <t>Si vous avez choisi une couleur et le nombre d'articles, un message apparaîtra : «Votre commande de … est bien ajoutée au panier». Si vous avez oublié de choisir une couleur et/ou un nombre d'articles, ou si vous avez saisi un mauvais nombre (moins de 1 ou plus de 100), vous allez recevoir un message : «Veuillez choisir une quantité entre 1 et 100 et/ou une couleur du canapé».</t>
-  </si>
-  <si>
-    <t>Cliquer sur la bouton «Ajouter au panier»</t>
-  </si>
-  <si>
-    <t>Bouton «Ajouter au panier»</t>
-  </si>
-  <si>
-    <t>Dans la fenêtre «nombre d'articles», cliquer sur les fléchettes à droite , pour choisir nombre d'articles de 1 à 100. </t>
-  </si>
-  <si>
-    <t>Cliquer sur la fenêtre «choisissez une couleur». Vous pouvez choisir la couleur de votre produit, en cliquant dessus.</t>
-  </si>
-  <si>
-    <t>Ouvrir la page «produit» en cliquant sur un produit</t>
   </si>
 </sst>
 </file>
@@ -915,20 +915,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="106.140625" customWidth="1"/>
+    <col min="5" max="5" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -960,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
@@ -986,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1006,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1020,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -1032,18 +1033,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="202.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>6</v>
@@ -1063,19 +1064,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -1083,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -1100,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>6</v>
@@ -1114,13 +1115,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>6</v>
@@ -1137,24 +1138,24 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="183" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="142.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>11</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>6</v>
@@ -1229,7 +1230,8 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan_de_test_P5.xlsx
+++ b/Plan_de_test_P5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\IdeaProjects\P5-Dev-Web-Kanap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB76508-DB97-4C92-90FD-0EB2138088DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13975D69-866A-4E25-81C1-DA8C0239383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Une page d’accueil montrant (de manière dynamique) tous les produits disponibles à la vente, avec nom et description </t>
   </si>
   <si>
-    <t>Si vous avez rempli toutes les cases du formulaire et vous avez cliqué sur le bouton «Commander !», vous serez transféré sur la page «Confirmation» avec un message au centre : «Commande validée ! Votre numéro de commande est : …Nous vous remercions pour votre commande! ». Si non, un message d'erreur apparaîtra. Si vous avez supprimé tous les articles du panier, message  apparaîtra : «Votre panier est vide.
+    <t>Si vous avez rempli toutes les cases du formulaire et vous avez cliqué sur le bouton «Commander !», vous aller être transférer sur la page «Confirmation» avec un message au centre : «Commande validée ! Votre numéro de commande est : …Nous vous remercions pour votre commande! ». Si non, un message d'erreur apparaîtra. Si vous avez supprimé tous les articles du panier, message  apparaîtra : «Votre panier est vide.
 Consulter notre catalogue»</t>
   </si>
 </sst>
@@ -919,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
